--- a/pooraa/xlsxdata/merapooraa.xlsx
+++ b/pooraa/xlsxdata/merapooraa.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="1995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -393,7 +394,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
